--- a/test/Mass Balance Test.xlsx
+++ b/test/Mass Balance Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcwgp\OneDrive\UTA Fall 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3344AC75-311B-4729-B862-671063B3763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13721A5D-D988-43B8-AA91-FD7B275C5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AFE6434-80C3-4A6E-A8DE-0FDB7F6A1743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>TEST STEPS</t>
   </si>
@@ -47,110 +47,9 @@
     <t>RESULT</t>
   </si>
   <si>
-    <t>Sys-MB-001</t>
-  </si>
-  <si>
-    <t>Sys-MB-002</t>
-  </si>
-  <si>
-    <t>Sys-MB-003</t>
-  </si>
-  <si>
-    <t>Sys-MB-004</t>
-  </si>
-  <si>
-    <t>Sys-MB-005</t>
-  </si>
-  <si>
-    <t>Sys-MB-006</t>
-  </si>
-  <si>
-    <t>Sys-MB-007</t>
-  </si>
-  <si>
-    <t>Sys-MB-008</t>
-  </si>
-  <si>
-    <t>Sys-MB-009</t>
-  </si>
-  <si>
-    <t>Sys-MB-010</t>
-  </si>
-  <si>
-    <t>Sys-MB-011</t>
-  </si>
-  <si>
-    <t>Sys-MB-012</t>
-  </si>
-  <si>
-    <t>Sys-MB-013</t>
-  </si>
-  <si>
-    <t>Sys-MB-014</t>
-  </si>
-  <si>
-    <t>Sys-MB-015</t>
-  </si>
-  <si>
-    <t>Sys-MB-016</t>
-  </si>
-  <si>
-    <t>Sys-MB-017</t>
-  </si>
-  <si>
-    <t>Sys-MB-018</t>
-  </si>
-  <si>
-    <t>Sys-MB-019</t>
-  </si>
-  <si>
-    <t>Sys-MB-020</t>
-  </si>
-  <si>
-    <t>Sys-MB-021</t>
-  </si>
-  <si>
-    <t>Load f16.xml file into application</t>
-  </si>
-  <si>
     <t>Select “Mass Balance” tab</t>
   </si>
   <si>
-    <t>UI loads empty weight</t>
-  </si>
-  <si>
-    <t>UI loads empty weight CG (x, y, z)</t>
-  </si>
-  <si>
-    <t>UI loads inertia Ixx, Iyy, Izz</t>
-  </si>
-  <si>
-    <t>UI loads cross-inertia Ixy, Ixz, Iyz</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>&lt;station&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> elements appear as rows</t>
-    </r>
-  </si>
-  <si>
     <t>Station weights match XML</t>
   </si>
   <si>
@@ -194,13 +93,127 @@
   </si>
   <si>
     <t>Load with empty XML</t>
+  </si>
+  <si>
+    <t>Sys-MAB-001</t>
+  </si>
+  <si>
+    <t>Sys-MAB-002</t>
+  </si>
+  <si>
+    <t>Sys-MAB-003</t>
+  </si>
+  <si>
+    <t>Sys-MAB-004</t>
+  </si>
+  <si>
+    <t>Sys-MAB-005</t>
+  </si>
+  <si>
+    <t>Sys-MAB-006</t>
+  </si>
+  <si>
+    <t>Sys-MAB-007</t>
+  </si>
+  <si>
+    <t>Sys-MAB-008</t>
+  </si>
+  <si>
+    <t>Sys-MAB-009</t>
+  </si>
+  <si>
+    <t>Sys-MAB-010</t>
+  </si>
+  <si>
+    <t>Sys-MAB-011</t>
+  </si>
+  <si>
+    <t>Sys-MAB-012</t>
+  </si>
+  <si>
+    <t>Sys-MAB-013</t>
+  </si>
+  <si>
+    <t>Sys-MAB-014</t>
+  </si>
+  <si>
+    <t>Sys-MAB-015</t>
+  </si>
+  <si>
+    <t>Sys-MAB-016</t>
+  </si>
+  <si>
+    <t>Sys-MAB-017</t>
+  </si>
+  <si>
+    <t>Sys-MAB-018</t>
+  </si>
+  <si>
+    <t>Sys-MAB-019</t>
+  </si>
+  <si>
+    <t>Sys-MAB-020</t>
+  </si>
+  <si>
+    <t>Sys-MAB-021</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the mass of the aircraft.</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the units of mass variable.</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the location of the center of mass of the aircraft.</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for six variables relating to the moment of inertia of the aircraft.</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the units of location variable.</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the units of moment of inertia variables.</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the pointmass variables related to the aircraft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program contains all MAB listed variables, buttons, and text on a tab labeled "Mass Balance". </t>
+  </si>
+  <si>
+    <t>Sys-MAB-022</t>
+  </si>
+  <si>
+    <t>Sys-MAB-023</t>
+  </si>
+  <si>
+    <t>Sys-MAB-024</t>
+  </si>
+  <si>
+    <t>Sys-MAB-025</t>
+  </si>
+  <si>
+    <t>Sys-MAB-026</t>
+  </si>
+  <si>
+    <t>Sys-MAB-027</t>
+  </si>
+  <si>
+    <t>Change units for Weight</t>
+  </si>
+  <si>
+    <t>Change units for CG</t>
+  </si>
+  <si>
+    <t>Change units for Point Masses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,11 +229,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,9 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AA0013-1EDD-4F70-B1AB-C0946FF47E69}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="104" customWidth="1"/>
@@ -602,7 +608,7 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,255 +619,307 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/Mass Balance Test.xlsx
+++ b/test/Mass Balance Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcwgp\OneDrive\UTA Fall 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13721A5D-D988-43B8-AA91-FD7B275C5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889826E-1F17-4383-AC96-A80346582415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AFE6434-80C3-4A6E-A8DE-0FDB7F6A1743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>TEST STEPS</t>
   </si>
@@ -71,15 +71,6 @@
     <t>Leave a required field blank and save</t>
   </si>
   <si>
-    <t>Change empty weight → Save → Reload</t>
-  </si>
-  <si>
-    <t>Change CG → Save → Reload</t>
-  </si>
-  <si>
-    <t>Change inertia → Save → Reload</t>
-  </si>
-  <si>
     <t>Test extremely large values</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Add 10 new Masses → Save</t>
-  </si>
-  <si>
     <t>Load with empty XML</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>Sys-MAB-026</t>
   </si>
   <si>
-    <t>Sys-MAB-027</t>
-  </si>
-  <si>
     <t>Change units for Weight</t>
   </si>
   <si>
@@ -207,6 +192,99 @@
   </si>
   <si>
     <t>Change units for Point Masses</t>
+  </si>
+  <si>
+    <t>EXPECTATION</t>
+  </si>
+  <si>
+    <t>Check that Empty Weight matches the XML value.</t>
+  </si>
+  <si>
+    <t>Verify weight units match XML units.</t>
+  </si>
+  <si>
+    <t>Verify CG (x,y,z) location matches XML.</t>
+  </si>
+  <si>
+    <t>Check CG units match XML.</t>
+  </si>
+  <si>
+    <t>Verify all six inertia values match the XML.</t>
+  </si>
+  <si>
+    <t>Verify inertia units match XML units.</t>
+  </si>
+  <si>
+    <t>Check point mass weights and locations match XML.</t>
+  </si>
+  <si>
+    <t>Verify all Mass Balance fields and buttons are present.</t>
+  </si>
+  <si>
+    <t>Confirm station (point mass) weights match XML.</t>
+  </si>
+  <si>
+    <t>Confirm station (point mass) positions match XML.</t>
+  </si>
+  <si>
+    <t>Add a new point mass and save.</t>
+  </si>
+  <si>
+    <t>Edit an existing point mass and save.</t>
+  </si>
+  <si>
+    <t>Delete a point mass and save.</t>
+  </si>
+  <si>
+    <t>Enter invalid letters into a numeric field.</t>
+  </si>
+  <si>
+    <t>Leave a required field blank and attempt save.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change empty weight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change CG </t>
+  </si>
+  <si>
+    <t>Change inertia</t>
+  </si>
+  <si>
+    <t>Change CG location → Save.</t>
+  </si>
+  <si>
+    <t>Change inertia value → Save.</t>
+  </si>
+  <si>
+    <t>Change Empty Weight → Save .</t>
+  </si>
+  <si>
+    <t>Add 10 new point masses and save.</t>
+  </si>
+  <si>
+    <t>Add 10 new Masses</t>
+  </si>
+  <si>
+    <t>Enter extremely large values and save.</t>
+  </si>
+  <si>
+    <t>Enter a negative weight and try saving.</t>
+  </si>
+  <si>
+    <t>Load an XML with the Mass Balance section removed.</t>
+  </si>
+  <si>
+    <t>Change CG units.</t>
+  </si>
+  <si>
+    <t>Change Weight units.</t>
+  </si>
+  <si>
+    <t>Change Point Mass location units.</t>
+  </si>
+  <si>
+    <t>Click the Mass Balance tab to confirm it loads.</t>
   </si>
 </sst>
 </file>
@@ -251,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -259,7 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,332 +671,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AA0013-1EDD-4F70-B1AB-C0946FF47E69}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="104" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="2" max="3" width="104" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/Mass Balance Test.xlsx
+++ b/test/Mass Balance Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcwgp\OneDrive\UTA Fall 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889826E-1F17-4383-AC96-A80346582415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA1BA2E-417A-4B95-9812-D720AFC1EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AFE6434-80C3-4A6E-A8DE-0FDB7F6A1743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>TEST STEPS</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Click the Mass Balance tab to confirm it loads.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1048,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/Mass Balance Test.xlsx
+++ b/test/Mass Balance Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcwgp\OneDrive\UTA Fall 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA1BA2E-417A-4B95-9812-D720AFC1EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE8D4B0-2FB2-4B53-82BC-F8FED7070950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AFE6434-80C3-4A6E-A8DE-0FDB7F6A1743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>TEST STEPS</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>Click the Mass Balance tab to confirm it loads.</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -677,7 +674,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1045,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/Mass Balance Test.xlsx
+++ b/test/Mass Balance Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcwgp\OneDrive\UTA Fall 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE8D4B0-2FB2-4B53-82BC-F8FED7070950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716945F7-7458-4181-93F4-8E35D3E15DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AFE6434-80C3-4A6E-A8DE-0FDB7F6A1743}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AFE6434-80C3-4A6E-A8DE-0FDB7F6A1743}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,15 +56,6 @@
     <t>Station positions match XML</t>
   </si>
   <si>
-    <t>Add new station → Save</t>
-  </si>
-  <si>
-    <t>Edit a station → Save</t>
-  </si>
-  <si>
-    <t>Delete station → Save</t>
-  </si>
-  <si>
     <t>Invalid numeric input (letters)</t>
   </si>
   <si>
@@ -146,30 +137,6 @@
     <t>Sys-MAB-021</t>
   </si>
   <si>
-    <t>Program recieves xml input for the mass of the aircraft.</t>
-  </si>
-  <si>
-    <t>Program recieves xml input for the units of mass variable.</t>
-  </si>
-  <si>
-    <t>Program recieves xml input for the location of the center of mass of the aircraft.</t>
-  </si>
-  <si>
-    <t>Program recieves xml input for six variables relating to the moment of inertia of the aircraft.</t>
-  </si>
-  <si>
-    <t>Program recieves xml input for the units of location variable.</t>
-  </si>
-  <si>
-    <t>Program recieves xml input for the units of moment of inertia variables.</t>
-  </si>
-  <si>
-    <t>Program recieves xml input for the pointmass variables related to the aircraft.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program contains all MAB listed variables, buttons, and text on a tab labeled "Mass Balance". </t>
-  </si>
-  <si>
     <t>Sys-MAB-022</t>
   </si>
   <si>
@@ -285,6 +252,39 @@
   </si>
   <si>
     <t>Click the Mass Balance tab to confirm it loads.</t>
+  </si>
+  <si>
+    <t>Add new station</t>
+  </si>
+  <si>
+    <t>Edit a station</t>
+  </si>
+  <si>
+    <t>Delete station</t>
+  </si>
+  <si>
+    <t>Program contains all MAB listed variables, buttons, and text on a tab labeled "Mass Balance"</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the pointmass variables related to the aircraft</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the units of moment of inertia variables</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for six variables relating to the moment of inertia of the aircraft</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the units of location variable</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the location of the center of mass of the aircraft</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the units of mass variable</t>
+  </si>
+  <si>
+    <t>Program recieves xml input for the mass of the aircraft</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -700,366 +700,366 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
